--- a/data/oegres_DL.xlsx
+++ b/data/oegres_DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/oegres/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B94929-7EF5-214B-92C1-082B75F86862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1F2A3E-E905-7046-97AD-3F46EE4C93FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38120" yWindow="3820" windowWidth="38120" windowHeight="12820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2960" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11276" uniqueCount="2693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11280" uniqueCount="2692">
   <si>
     <t>datasetID</t>
   </si>
@@ -7594,9 +7594,6 @@
   </si>
   <si>
     <t>S116</t>
-  </si>
-  <si>
-    <t>seems to be duplicate</t>
   </si>
   <si>
     <t>yeom19</t>
@@ -9611,13 +9608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="K457" sqref="K457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="134.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -10893,7 +10890,7 @@
         <v>38</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -11402,7 +11399,7 @@
         <v>365</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
@@ -25810,7 +25807,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>192</v>
       </c>
@@ -25854,7 +25851,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>192</v>
       </c>
@@ -25895,7 +25892,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>192</v>
       </c>
@@ -25936,7 +25933,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>192</v>
       </c>
@@ -25965,7 +25962,10 @@
         <v>391</v>
       </c>
       <c r="K356" t="s">
-        <v>702</v>
+        <v>339</v>
+      </c>
+      <c r="L356" t="s">
+        <v>499</v>
       </c>
       <c r="P356" t="s">
         <v>567</v>
@@ -25976,8 +25976,11 @@
       <c r="S356" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T356" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>192</v>
       </c>
@@ -26021,7 +26024,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>192</v>
       </c>
@@ -26062,7 +26065,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>192</v>
       </c>
@@ -26100,7 +26103,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>192</v>
       </c>
@@ -26138,7 +26141,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>192</v>
       </c>
@@ -26176,7 +26179,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>192</v>
       </c>
@@ -26214,7 +26217,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>192</v>
       </c>
@@ -26252,7 +26255,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>192</v>
       </c>
@@ -26293,7 +26296,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>192</v>
       </c>
@@ -26334,7 +26337,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>192</v>
       </c>
@@ -26375,7 +26378,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>192</v>
       </c>
@@ -26416,7 +26419,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>192</v>
       </c>
@@ -29791,7 +29794,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>192</v>
       </c>
@@ -29832,7 +29835,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>192</v>
       </c>
@@ -29873,7 +29876,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>192</v>
       </c>
@@ -29905,7 +29908,10 @@
         <v>2504</v>
       </c>
       <c r="K451" t="s">
-        <v>702</v>
+        <v>339</v>
+      </c>
+      <c r="L451" t="s">
+        <v>2530</v>
       </c>
       <c r="P451" t="s">
         <v>551</v>
@@ -29916,8 +29922,11 @@
       <c r="S451" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T451" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>328</v>
       </c>
@@ -29955,7 +29964,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>192</v>
       </c>
@@ -30002,7 +30011,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>192</v>
       </c>
@@ -30037,7 +30046,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>192</v>
       </c>
@@ -30069,30 +30078,27 @@
         <v>1346</v>
       </c>
       <c r="K455" t="s">
-        <v>917</v>
-      </c>
-      <c r="Q455" t="s">
-        <v>2520</v>
+        <v>193</v>
       </c>
       <c r="R455" t="s">
         <v>281</v>
       </c>
       <c r="S455" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>192</v>
       </c>
       <c r="B456" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C456" t="s">
         <v>2522</v>
       </c>
-      <c r="C456" t="s">
+      <c r="D456" t="s">
         <v>2523</v>
-      </c>
-      <c r="D456" t="s">
-        <v>2524</v>
       </c>
       <c r="E456">
         <v>11</v>
@@ -30113,24 +30119,24 @@
         <v>917</v>
       </c>
       <c r="Q456" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="R456" t="s">
         <v>281</v>
       </c>
       <c r="S456" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>192</v>
       </c>
       <c r="B457" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C457" t="s">
         <v>2527</v>
-      </c>
-      <c r="C457" t="s">
-        <v>2528</v>
       </c>
       <c r="D457" t="s">
         <v>1692</v>
@@ -30148,39 +30154,39 @@
         <v>2018</v>
       </c>
       <c r="I457" t="s">
+        <v>2528</v>
+      </c>
+      <c r="J457" t="s">
         <v>2529</v>
-      </c>
-      <c r="J457" t="s">
-        <v>2530</v>
       </c>
       <c r="K457" t="s">
         <v>1121</v>
       </c>
       <c r="L457" t="s">
+        <v>2530</v>
+      </c>
+      <c r="Q457" t="s">
         <v>2531</v>
-      </c>
-      <c r="Q457" t="s">
-        <v>2532</v>
       </c>
       <c r="R457" t="s">
         <v>281</v>
       </c>
       <c r="S457" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>192</v>
       </c>
       <c r="B458" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C458" t="s">
         <v>2534</v>
       </c>
-      <c r="C458" t="s">
+      <c r="D458" t="s">
         <v>2535</v>
-      </c>
-      <c r="D458" t="s">
-        <v>2536</v>
       </c>
       <c r="E458">
         <v>10</v>
@@ -30195,7 +30201,7 @@
         <v>2007</v>
       </c>
       <c r="I458" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="J458" t="s">
         <v>948</v>
@@ -30204,30 +30210,30 @@
         <v>1121</v>
       </c>
       <c r="L458" t="s">
+        <v>2530</v>
+      </c>
+      <c r="Q458" t="s">
         <v>2531</v>
-      </c>
-      <c r="Q458" t="s">
-        <v>2532</v>
       </c>
       <c r="R458" t="s">
         <v>281</v>
       </c>
       <c r="S458" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>192</v>
       </c>
       <c r="B459" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C459" t="s">
         <v>2539</v>
       </c>
-      <c r="C459" t="s">
+      <c r="D459" t="s">
         <v>2540</v>
-      </c>
-      <c r="D459" t="s">
-        <v>2541</v>
       </c>
       <c r="E459">
         <v>90</v>
@@ -30242,10 +30248,10 @@
         <v>2009</v>
       </c>
       <c r="I459" t="s">
+        <v>2541</v>
+      </c>
+      <c r="J459" t="s">
         <v>2542</v>
-      </c>
-      <c r="J459" t="s">
-        <v>2543</v>
       </c>
       <c r="K459" t="s">
         <v>193</v>
@@ -30254,18 +30260,18 @@
         <v>281</v>
       </c>
       <c r="S459" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>192</v>
       </c>
       <c r="B460" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C460" t="s">
         <v>2545</v>
-      </c>
-      <c r="C460" t="s">
-        <v>2546</v>
       </c>
       <c r="D460" t="s">
         <v>1768</v>
@@ -30295,21 +30301,21 @@
         <v>281</v>
       </c>
       <c r="S460" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>192</v>
       </c>
       <c r="B461" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C461" t="s">
         <v>2548</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
         <v>2549</v>
-      </c>
-      <c r="D461" t="s">
-        <v>2550</v>
       </c>
       <c r="E461">
         <v>24</v>
@@ -30324,10 +30330,10 @@
         <v>2015</v>
       </c>
       <c r="I461" t="s">
+        <v>2550</v>
+      </c>
+      <c r="J461" t="s">
         <v>2551</v>
-      </c>
-      <c r="J461" t="s">
-        <v>2552</v>
       </c>
       <c r="K461" t="s">
         <v>193</v>
@@ -30336,18 +30342,18 @@
         <v>281</v>
       </c>
       <c r="S461" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>192</v>
       </c>
       <c r="B462" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C462" t="s">
         <v>2554</v>
-      </c>
-      <c r="C462" t="s">
-        <v>2555</v>
       </c>
       <c r="D462" t="s">
         <v>1028</v>
@@ -30368,7 +30374,7 @@
         <v>629</v>
       </c>
       <c r="J462" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K462" t="s">
         <v>193</v>
@@ -30377,18 +30383,18 @@
         <v>281</v>
       </c>
       <c r="S462" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>192</v>
       </c>
       <c r="B463" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C463" t="s">
         <v>2558</v>
-      </c>
-      <c r="C463" t="s">
-        <v>2559</v>
       </c>
       <c r="D463" t="s">
         <v>300</v>
@@ -30406,10 +30412,10 @@
         <v>2021</v>
       </c>
       <c r="I463" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J463" t="s">
         <v>2560</v>
-      </c>
-      <c r="J463" t="s">
-        <v>2561</v>
       </c>
       <c r="K463" t="s">
         <v>702</v>
@@ -30421,21 +30427,21 @@
         <v>281</v>
       </c>
       <c r="S463" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>192</v>
       </c>
       <c r="B464" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C464" t="s">
         <v>2563</v>
       </c>
-      <c r="C464" t="s">
+      <c r="D464" t="s">
         <v>2564</v>
-      </c>
-      <c r="D464" t="s">
-        <v>2565</v>
       </c>
       <c r="E464">
         <v>35</v>
@@ -30462,7 +30468,7 @@
         <v>281</v>
       </c>
       <c r="S464" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.2">
@@ -30470,10 +30476,10 @@
         <v>192</v>
       </c>
       <c r="B465" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C465" t="s">
         <v>2567</v>
-      </c>
-      <c r="C465" t="s">
-        <v>2568</v>
       </c>
       <c r="D465" t="s">
         <v>389</v>
@@ -30500,7 +30506,7 @@
         <v>281</v>
       </c>
       <c r="S465" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.2">
@@ -30508,10 +30514,10 @@
         <v>192</v>
       </c>
       <c r="B466" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C466" t="s">
         <v>2570</v>
-      </c>
-      <c r="C466" t="s">
-        <v>2571</v>
       </c>
       <c r="D466" t="s">
         <v>1692</v>
@@ -30520,7 +30526,7 @@
         <v>30</v>
       </c>
       <c r="F466" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="G466">
         <v>1661</v>
@@ -30541,7 +30547,7 @@
         <v>281</v>
       </c>
       <c r="S466" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.2">
@@ -30549,10 +30555,10 @@
         <v>192</v>
       </c>
       <c r="B467" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C467" t="s">
         <v>2574</v>
-      </c>
-      <c r="C467" t="s">
-        <v>2575</v>
       </c>
       <c r="D467" t="s">
         <v>2053</v>
@@ -30582,7 +30588,7 @@
         <v>281</v>
       </c>
       <c r="S467" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.2">
@@ -30590,10 +30596,10 @@
         <v>192</v>
       </c>
       <c r="B468" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C468" t="s">
         <v>2577</v>
-      </c>
-      <c r="C468" t="s">
-        <v>2578</v>
       </c>
       <c r="D468" t="s">
         <v>749</v>
@@ -30623,7 +30629,7 @@
         <v>281</v>
       </c>
       <c r="S468" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.2">
@@ -30631,13 +30637,13 @@
         <v>192</v>
       </c>
       <c r="B469" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C469" t="s">
         <v>2580</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D469" t="s">
         <v>2581</v>
-      </c>
-      <c r="D469" t="s">
-        <v>2582</v>
       </c>
       <c r="E469">
         <v>24</v>
@@ -30655,7 +30661,7 @@
         <v>1635</v>
       </c>
       <c r="J469" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="K469" t="s">
         <v>193</v>
@@ -30664,7 +30670,7 @@
         <v>281</v>
       </c>
       <c r="S469" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.2">
@@ -30672,10 +30678,10 @@
         <v>192</v>
       </c>
       <c r="B470" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C470" t="s">
         <v>2585</v>
-      </c>
-      <c r="C470" t="s">
-        <v>2586</v>
       </c>
       <c r="D470" t="s">
         <v>1882</v>
@@ -30705,7 +30711,7 @@
         <v>281</v>
       </c>
       <c r="S470" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.2">
@@ -30713,10 +30719,10 @@
         <v>192</v>
       </c>
       <c r="B471" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C471" t="s">
         <v>2588</v>
-      </c>
-      <c r="C471" t="s">
-        <v>2589</v>
       </c>
       <c r="D471" t="s">
         <v>983</v>
@@ -30737,7 +30743,7 @@
         <v>258</v>
       </c>
       <c r="J471" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="K471" t="s">
         <v>193</v>
@@ -30746,7 +30752,7 @@
         <v>281</v>
       </c>
       <c r="S471" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.2">
@@ -30754,13 +30760,13 @@
         <v>192</v>
       </c>
       <c r="B472" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C472" t="s">
         <v>2592</v>
       </c>
-      <c r="C472" t="s">
+      <c r="D472" t="s">
         <v>2593</v>
-      </c>
-      <c r="D472" t="s">
-        <v>2594</v>
       </c>
       <c r="E472">
         <v>24</v>
@@ -30784,7 +30790,7 @@
         <v>281</v>
       </c>
       <c r="S472" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.2">
@@ -30792,13 +30798,13 @@
         <v>192</v>
       </c>
       <c r="B473" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C473" t="s">
         <v>2596</v>
       </c>
-      <c r="C473" t="s">
+      <c r="D473" t="s">
         <v>2597</v>
-      </c>
-      <c r="D473" t="s">
-        <v>2598</v>
       </c>
       <c r="E473">
         <v>20</v>
@@ -30825,7 +30831,7 @@
         <v>281</v>
       </c>
       <c r="S473" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.2">
@@ -30833,13 +30839,13 @@
         <v>192</v>
       </c>
       <c r="B474" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C474" t="s">
         <v>2600</v>
       </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
         <v>2601</v>
-      </c>
-      <c r="D474" t="s">
-        <v>2602</v>
       </c>
       <c r="E474">
         <v>32</v>
@@ -30854,10 +30860,10 @@
         <v>1997</v>
       </c>
       <c r="I474" t="s">
+        <v>2602</v>
+      </c>
+      <c r="J474" t="s">
         <v>2603</v>
-      </c>
-      <c r="J474" t="s">
-        <v>2604</v>
       </c>
       <c r="K474" t="s">
         <v>193</v>
@@ -30866,7 +30872,7 @@
         <v>281</v>
       </c>
       <c r="S474" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.2">
@@ -30874,13 +30880,13 @@
         <v>192</v>
       </c>
       <c r="B475" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C475" t="s">
         <v>2606</v>
       </c>
-      <c r="C475" t="s">
-        <v>2607</v>
-      </c>
       <c r="D475" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="E475">
         <v>40</v>
@@ -30895,10 +30901,10 @@
         <v>2012</v>
       </c>
       <c r="I475" t="s">
+        <v>2607</v>
+      </c>
+      <c r="J475" t="s">
         <v>2608</v>
-      </c>
-      <c r="J475" t="s">
-        <v>2609</v>
       </c>
       <c r="K475" t="s">
         <v>193</v>
@@ -30907,7 +30913,7 @@
         <v>281</v>
       </c>
       <c r="S475" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.2">
@@ -30915,19 +30921,19 @@
         <v>2426</v>
       </c>
       <c r="B476" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C476" t="s">
         <v>2611</v>
-      </c>
-      <c r="C476" t="s">
-        <v>2612</v>
       </c>
       <c r="H476" t="s">
         <v>41</v>
       </c>
       <c r="I476" t="s">
+        <v>2612</v>
+      </c>
+      <c r="J476" t="s">
         <v>2613</v>
-      </c>
-      <c r="J476" t="s">
-        <v>2614</v>
       </c>
       <c r="K476" t="s">
         <v>702</v>
@@ -30939,7 +30945,7 @@
         <v>281</v>
       </c>
       <c r="S476" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.2">
@@ -30947,10 +30953,10 @@
         <v>192</v>
       </c>
       <c r="B477" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C477" t="s">
         <v>2616</v>
-      </c>
-      <c r="C477" t="s">
-        <v>2617</v>
       </c>
       <c r="D477" t="s">
         <v>261</v>
@@ -30968,10 +30974,10 @@
         <v>2021</v>
       </c>
       <c r="I477" t="s">
+        <v>2617</v>
+      </c>
+      <c r="J477" t="s">
         <v>2618</v>
-      </c>
-      <c r="J477" t="s">
-        <v>2619</v>
       </c>
       <c r="K477" t="s">
         <v>917</v>
@@ -30980,7 +30986,7 @@
         <v>281</v>
       </c>
       <c r="S477" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.2">
@@ -30988,13 +30994,13 @@
         <v>192</v>
       </c>
       <c r="B478" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C478" t="s">
         <v>2621</v>
       </c>
-      <c r="C478" t="s">
+      <c r="D478" t="s">
         <v>2622</v>
-      </c>
-      <c r="D478" t="s">
-        <v>2623</v>
       </c>
       <c r="E478">
         <v>18</v>
@@ -31021,7 +31027,7 @@
         <v>281</v>
       </c>
       <c r="S478" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.2">
@@ -31029,10 +31035,10 @@
         <v>192</v>
       </c>
       <c r="B479" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C479" t="s">
         <v>2625</v>
-      </c>
-      <c r="C479" t="s">
-        <v>2626</v>
       </c>
       <c r="D479" t="s">
         <v>1768</v>
@@ -31050,10 +31056,10 @@
         <v>2008</v>
       </c>
       <c r="I479" t="s">
+        <v>2626</v>
+      </c>
+      <c r="J479" t="s">
         <v>2627</v>
-      </c>
-      <c r="J479" t="s">
-        <v>2628</v>
       </c>
       <c r="K479" t="s">
         <v>193</v>
@@ -31062,7 +31068,7 @@
         <v>281</v>
       </c>
       <c r="S479" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.2">
@@ -31070,10 +31076,10 @@
         <v>192</v>
       </c>
       <c r="B480" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C480" t="s">
         <v>2630</v>
-      </c>
-      <c r="C480" t="s">
-        <v>2631</v>
       </c>
       <c r="D480" t="s">
         <v>1354</v>
@@ -31100,13 +31106,13 @@
         <v>917</v>
       </c>
       <c r="M480" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="R480" t="s">
         <v>281</v>
       </c>
       <c r="S480" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.2">
@@ -31114,10 +31120,10 @@
         <v>192</v>
       </c>
       <c r="B481" t="s">
+        <v>2632</v>
+      </c>
+      <c r="C481" t="s">
         <v>2633</v>
-      </c>
-      <c r="C481" t="s">
-        <v>2634</v>
       </c>
       <c r="D481" t="s">
         <v>901</v>
@@ -31138,7 +31144,7 @@
         <v>1311</v>
       </c>
       <c r="J481" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="K481" t="s">
         <v>193</v>
@@ -31147,7 +31153,7 @@
         <v>281</v>
       </c>
       <c r="S481" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.2">
@@ -31155,10 +31161,10 @@
         <v>192</v>
       </c>
       <c r="B482" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C482" t="s">
         <v>2637</v>
-      </c>
-      <c r="C482" t="s">
-        <v>2638</v>
       </c>
       <c r="D482" t="s">
         <v>761</v>
@@ -31170,7 +31176,7 @@
         <v>344</v>
       </c>
       <c r="J482" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="K482" t="s">
         <v>193</v>
@@ -31179,7 +31185,7 @@
         <v>281</v>
       </c>
       <c r="S482" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.2">
@@ -31187,13 +31193,13 @@
         <v>192</v>
       </c>
       <c r="B483" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C483" t="s">
         <v>2640</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483" t="s">
         <v>2641</v>
-      </c>
-      <c r="D483" t="s">
-        <v>2642</v>
       </c>
       <c r="E483">
         <v>32</v>
@@ -31208,10 +31214,10 @@
         <v>2010</v>
       </c>
       <c r="I483" t="s">
+        <v>2642</v>
+      </c>
+      <c r="J483" t="s">
         <v>2643</v>
-      </c>
-      <c r="J483" t="s">
-        <v>2644</v>
       </c>
       <c r="K483" t="s">
         <v>193</v>
@@ -31220,7 +31226,7 @@
         <v>281</v>
       </c>
       <c r="S483" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.2">
@@ -31228,13 +31234,13 @@
         <v>192</v>
       </c>
       <c r="B484" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C484" t="s">
         <v>2646</v>
       </c>
-      <c r="C484" t="s">
-        <v>2647</v>
-      </c>
       <c r="D484" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="E484">
         <v>26</v>
@@ -31249,10 +31255,10 @@
         <v>2017</v>
       </c>
       <c r="I484" t="s">
+        <v>2647</v>
+      </c>
+      <c r="J484" t="s">
         <v>2648</v>
-      </c>
-      <c r="J484" t="s">
-        <v>2649</v>
       </c>
       <c r="K484" t="s">
         <v>193</v>
@@ -31261,7 +31267,7 @@
         <v>281</v>
       </c>
       <c r="S484" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.2">
@@ -31269,31 +31275,31 @@
         <v>2426</v>
       </c>
       <c r="B485" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C485" t="s">
         <v>2651</v>
-      </c>
-      <c r="C485" t="s">
-        <v>2652</v>
       </c>
       <c r="H485" t="s">
         <v>41</v>
       </c>
       <c r="I485" t="s">
+        <v>2652</v>
+      </c>
+      <c r="J485" t="s">
         <v>2653</v>
-      </c>
-      <c r="J485" t="s">
-        <v>2654</v>
       </c>
       <c r="K485" t="s">
         <v>917</v>
       </c>
       <c r="M485" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="R485" t="s">
         <v>281</v>
       </c>
       <c r="S485" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.2">
@@ -31301,13 +31307,13 @@
         <v>192</v>
       </c>
       <c r="B486" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C486" t="s">
         <v>2657</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>2658</v>
-      </c>
-      <c r="D486" t="s">
-        <v>2659</v>
       </c>
       <c r="E486">
         <v>41</v>
@@ -31322,22 +31328,22 @@
         <v>2003</v>
       </c>
       <c r="I486" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J486" t="s">
         <v>2660</v>
-      </c>
-      <c r="J486" t="s">
-        <v>2661</v>
       </c>
       <c r="K486" t="s">
         <v>917</v>
       </c>
       <c r="M486" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="R486" t="s">
         <v>281</v>
       </c>
       <c r="S486" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.2">
@@ -31345,13 +31351,13 @@
         <v>192</v>
       </c>
       <c r="B487" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C487" t="s">
         <v>2664</v>
       </c>
-      <c r="C487" t="s">
+      <c r="D487" t="s">
         <v>2665</v>
-      </c>
-      <c r="D487" t="s">
-        <v>2666</v>
       </c>
       <c r="E487">
         <v>141</v>
@@ -31369,7 +31375,7 @@
         <v>357</v>
       </c>
       <c r="J487" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="K487" t="s">
         <v>193</v>
@@ -31378,7 +31384,7 @@
         <v>281</v>
       </c>
       <c r="S487" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.2">
@@ -31386,10 +31392,10 @@
         <v>192</v>
       </c>
       <c r="B488" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C488" t="s">
         <v>2669</v>
-      </c>
-      <c r="C488" t="s">
-        <v>2670</v>
       </c>
       <c r="D488" t="s">
         <v>463</v>
@@ -31410,7 +31416,7 @@
         <v>258</v>
       </c>
       <c r="J488" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="K488" t="s">
         <v>193</v>
@@ -31419,7 +31425,7 @@
         <v>281</v>
       </c>
       <c r="S488" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.2">
@@ -31427,10 +31433,10 @@
         <v>2426</v>
       </c>
       <c r="B489" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C489" t="s">
         <v>2673</v>
-      </c>
-      <c r="C489" t="s">
-        <v>2674</v>
       </c>
       <c r="H489" t="s">
         <v>41</v>
@@ -31442,13 +31448,13 @@
         <v>1121</v>
       </c>
       <c r="P489" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="R489" t="s">
         <v>281</v>
       </c>
       <c r="S489" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.2">
@@ -31456,13 +31462,13 @@
         <v>192</v>
       </c>
       <c r="B490" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C490" t="s">
         <v>2677</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490" t="s">
         <v>2678</v>
-      </c>
-      <c r="D490" t="s">
-        <v>2679</v>
       </c>
       <c r="E490">
         <v>51</v>
@@ -31477,10 +31483,13 @@
         <v>2014</v>
       </c>
       <c r="I490" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="K490" t="s">
-        <v>193</v>
+        <v>339</v>
+      </c>
+      <c r="L490" t="s">
+        <v>499</v>
       </c>
       <c r="P490" t="s">
         <v>48</v>
@@ -31489,7 +31498,7 @@
         <v>232</v>
       </c>
       <c r="S490" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.2">
@@ -31497,10 +31506,10 @@
         <v>192</v>
       </c>
       <c r="B491" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C491" t="s">
         <v>2682</v>
-      </c>
-      <c r="C491" t="s">
-        <v>2683</v>
       </c>
       <c r="D491" t="s">
         <v>203</v>
@@ -31518,10 +31527,10 @@
         <v>2007</v>
       </c>
       <c r="I491" t="s">
+        <v>2683</v>
+      </c>
+      <c r="J491" t="s">
         <v>2684</v>
-      </c>
-      <c r="J491" t="s">
-        <v>2685</v>
       </c>
       <c r="K491" t="s">
         <v>193</v>
@@ -31533,7 +31542,7 @@
         <v>232</v>
       </c>
       <c r="S491" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.2">
@@ -31541,13 +31550,13 @@
         <v>192</v>
       </c>
       <c r="B492" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C492" t="s">
         <v>2687</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
         <v>2688</v>
-      </c>
-      <c r="D492" t="s">
-        <v>2689</v>
       </c>
       <c r="E492">
         <v>6</v>
@@ -31577,7 +31586,7 @@
         <v>232</v>
       </c>
       <c r="S492" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
   </sheetData>
